--- a/SchedulingData/dynamic13/pso/scheduling2_5.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_5.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>225.58</v>
+        <v>228.02</v>
       </c>
       <c r="D2" t="n">
-        <v>290.02</v>
+        <v>290.12</v>
       </c>
       <c r="E2" t="n">
-        <v>12.648</v>
+        <v>14.488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>247.46</v>
+        <v>243.78</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2</v>
+        <v>286</v>
       </c>
       <c r="E3" t="n">
-        <v>11.62</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>237.98</v>
+        <v>288.56</v>
       </c>
       <c r="D4" t="n">
-        <v>297.38</v>
+        <v>373.92</v>
       </c>
       <c r="E4" t="n">
-        <v>12.892</v>
+        <v>10.708</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>297.38</v>
+        <v>373.92</v>
       </c>
       <c r="D5" t="n">
-        <v>334.6</v>
+        <v>418.44</v>
       </c>
       <c r="E5" t="n">
-        <v>10.3</v>
+        <v>8.375999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -542,74 +542,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>334.6</v>
+        <v>220.24</v>
       </c>
       <c r="D6" t="n">
-        <v>402.1</v>
+        <v>272.98</v>
       </c>
       <c r="E6" t="n">
-        <v>7.18</v>
+        <v>13.312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>204.66</v>
+        <v>418.44</v>
       </c>
       <c r="D7" t="n">
-        <v>279.76</v>
+        <v>463.54</v>
       </c>
       <c r="E7" t="n">
-        <v>14.684</v>
+        <v>5.976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>290.02</v>
+        <v>211.78</v>
       </c>
       <c r="D8" t="n">
-        <v>332</v>
+        <v>264.52</v>
       </c>
       <c r="E8" t="n">
-        <v>9.58</v>
+        <v>13.188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>279.76</v>
+        <v>290.12</v>
       </c>
       <c r="D9" t="n">
-        <v>342.3</v>
+        <v>347.72</v>
       </c>
       <c r="E9" t="n">
-        <v>10.54</v>
+        <v>10.848</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>332</v>
+        <v>463.54</v>
       </c>
       <c r="D10" t="n">
-        <v>379.1</v>
+        <v>510.54</v>
       </c>
       <c r="E10" t="n">
-        <v>6.5</v>
+        <v>3.896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>379.1</v>
+        <v>264.52</v>
       </c>
       <c r="D11" t="n">
-        <v>429.06</v>
+        <v>312.02</v>
       </c>
       <c r="E11" t="n">
-        <v>4.124</v>
+        <v>10.068</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>238.86</v>
+        <v>312.02</v>
       </c>
       <c r="D12" t="n">
-        <v>295.12</v>
+        <v>351.7</v>
       </c>
       <c r="E12" t="n">
-        <v>14.608</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>402.1</v>
+        <v>231.46</v>
       </c>
       <c r="D13" t="n">
-        <v>451.38</v>
+        <v>285.72</v>
       </c>
       <c r="E13" t="n">
-        <v>4.372</v>
+        <v>11.568</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>342.3</v>
+        <v>286</v>
       </c>
       <c r="D14" t="n">
-        <v>404.3</v>
+        <v>347.36</v>
       </c>
       <c r="E14" t="n">
-        <v>8.460000000000001</v>
+        <v>11.504</v>
       </c>
     </row>
     <row r="15">
@@ -713,131 +713,131 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>212.18</v>
+        <v>347.72</v>
       </c>
       <c r="D15" t="n">
-        <v>286.64</v>
+        <v>413.18</v>
       </c>
       <c r="E15" t="n">
-        <v>15.276</v>
+        <v>7.432</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>305.2</v>
+        <v>413.18</v>
       </c>
       <c r="D16" t="n">
-        <v>340.8</v>
+        <v>487.26</v>
       </c>
       <c r="E16" t="n">
-        <v>9.199999999999999</v>
+        <v>4.624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>340.8</v>
+        <v>272.98</v>
       </c>
       <c r="D17" t="n">
-        <v>395.12</v>
+        <v>332.62</v>
       </c>
       <c r="E17" t="n">
-        <v>6.868</v>
+        <v>9.968</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>404.3</v>
+        <v>332.62</v>
       </c>
       <c r="D18" t="n">
-        <v>484.76</v>
+        <v>369.82</v>
       </c>
       <c r="E18" t="n">
-        <v>4.524</v>
+        <v>6.888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>429.06</v>
+        <v>351.7</v>
       </c>
       <c r="D19" t="n">
-        <v>488.44</v>
+        <v>401.4</v>
       </c>
       <c r="E19" t="n">
-        <v>1.316</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>488.44</v>
+        <v>401.4</v>
       </c>
       <c r="D20" t="n">
-        <v>557.8099999999999</v>
+        <v>443.9</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>395.12</v>
+        <v>443.9</v>
       </c>
       <c r="D21" t="n">
-        <v>436.2</v>
+        <v>534.08</v>
       </c>
       <c r="E21" t="n">
-        <v>3.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -846,93 +846,93 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>295.12</v>
+        <v>534.08</v>
       </c>
       <c r="D22" t="n">
-        <v>353.38</v>
+        <v>572.58</v>
       </c>
       <c r="E22" t="n">
-        <v>10.912</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>286.64</v>
+        <v>285.72</v>
       </c>
       <c r="D23" t="n">
-        <v>331.96</v>
+        <v>343.94</v>
       </c>
       <c r="E23" t="n">
-        <v>12.364</v>
+        <v>8.375999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>353.38</v>
+        <v>510.54</v>
       </c>
       <c r="D24" t="n">
-        <v>398.18</v>
+        <v>545.6</v>
       </c>
       <c r="E24" t="n">
-        <v>7.072</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>451.38</v>
+        <v>545.6</v>
       </c>
       <c r="D25" t="n">
-        <v>511.04</v>
+        <v>648.96</v>
       </c>
       <c r="E25" t="n">
-        <v>1.996</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>511.04</v>
+        <v>343.94</v>
       </c>
       <c r="D26" t="n">
-        <v>613.45</v>
+        <v>398.32</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>5.568</v>
       </c>
     </row>
     <row r="27">
@@ -941,245 +941,245 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>331.96</v>
+        <v>487.26</v>
       </c>
       <c r="D27" t="n">
-        <v>384.66</v>
+        <v>551.6799999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>9.724</v>
+        <v>2.292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>436.2</v>
+        <v>369.82</v>
       </c>
       <c r="D28" t="n">
-        <v>510.2</v>
+        <v>439.22</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>3.048</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>510.2</v>
+        <v>347.36</v>
       </c>
       <c r="D29" t="n">
-        <v>581.3200000000001</v>
+        <v>399.54</v>
       </c>
       <c r="E29" t="n">
-        <v>26.048</v>
+        <v>7.916</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>384.66</v>
+        <v>398.32</v>
       </c>
       <c r="D30" t="n">
-        <v>433.92</v>
+        <v>438.48</v>
       </c>
       <c r="E30" t="n">
-        <v>5.928</v>
+        <v>3.192</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>433.92</v>
+        <v>439.22</v>
       </c>
       <c r="D31" t="n">
-        <v>495.92</v>
+        <v>539.42</v>
       </c>
       <c r="E31" t="n">
-        <v>2.848</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>495.92</v>
+        <v>539.42</v>
       </c>
       <c r="D32" t="n">
-        <v>586.8200000000001</v>
+        <v>578.22</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>586.8200000000001</v>
+        <v>578.22</v>
       </c>
       <c r="D33" t="n">
-        <v>674.62</v>
+        <v>633.34</v>
       </c>
       <c r="E33" t="n">
-        <v>26.36</v>
+        <v>23.908</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>581.3200000000001</v>
+        <v>572.58</v>
       </c>
       <c r="D34" t="n">
-        <v>639.02</v>
+        <v>628.64</v>
       </c>
       <c r="E34" t="n">
-        <v>23.888</v>
+        <v>25.344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>613.45</v>
+        <v>438.48</v>
       </c>
       <c r="D35" t="n">
-        <v>652.25</v>
+        <v>498.54</v>
       </c>
       <c r="E35" t="n">
-        <v>26.82</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>398.18</v>
+        <v>498.54</v>
       </c>
       <c r="D36" t="n">
-        <v>457.78</v>
+        <v>573.8099999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>3.232</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>557.8099999999999</v>
+        <v>399.54</v>
       </c>
       <c r="D37" t="n">
-        <v>592.89</v>
+        <v>449.34</v>
       </c>
       <c r="E37" t="n">
-        <v>27.192</v>
+        <v>4.076</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>457.78</v>
+        <v>573.8099999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>557.62</v>
+        <v>633.41</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>557.62</v>
+        <v>633.41</v>
       </c>
       <c r="D39" t="n">
-        <v>633.28</v>
+        <v>688.73</v>
       </c>
       <c r="E39" t="n">
-        <v>26.584</v>
+        <v>23.788</v>
       </c>
     </row>
     <row r="40">
@@ -1188,74 +1188,74 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>633.28</v>
+        <v>628.64</v>
       </c>
       <c r="D40" t="n">
-        <v>687.58</v>
+        <v>669.04</v>
       </c>
       <c r="E40" t="n">
-        <v>23.284</v>
+        <v>22.924</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>687.58</v>
+        <v>648.96</v>
       </c>
       <c r="D41" t="n">
-        <v>723.1</v>
+        <v>700.4400000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>20.372</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>639.02</v>
+        <v>449.34</v>
       </c>
       <c r="D42" t="n">
-        <v>688.4400000000001</v>
+        <v>513.3200000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>21.556</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>592.89</v>
+        <v>513.3200000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>652.6900000000001</v>
+        <v>582.78</v>
       </c>
       <c r="E43" t="n">
-        <v>24.332</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
